--- a/MainTop/18.05.25/add.xlsx
+++ b/MainTop/18.05.25/add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\18.05.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7885CA63-86EC-4019-970F-239D5C622E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACE0C97-3BEC-4D9F-9D34-2D4A45341D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Термонаклейка Мона Лиза, Фрида Кало свадьба</t>
   </si>
@@ -40,19 +40,29 @@
   </si>
   <si>
     <t>Термонаклейка Фламинго Flamingo цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный волк красный луна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -82,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -365,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +419,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="257" orientation="landscape" horizontalDpi="203" verticalDpi="203" copies="4" r:id="rId1"/>
